--- a/excel/policy/power_unit.xlsx
+++ b/excel/policy/power_unit.xlsx
@@ -130,9 +130,9 @@
     <t>重庆</t>
   </si>
   <si>
-    <t>省份</t>
+    <t>地区</t>
     <rPh sb="0" eb="1">
-      <t>sheng'fen</t>
+      <t>di'qu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,9 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
